--- a/biology/Zoologie/Antilocapridae/Antilocapridae.xlsx
+++ b/biology/Zoologie/Antilocapridae/Antilocapridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Antilocapridés forment une famille de mammifères artiodactyles originaires d'Amérique du Nord. 
 Cette famille ne compte plus qu'une seule espèce vivante, Antilocapra americana, mais était largemenent diversifiée au Miocène et au Pliocène.
@@ -512,7 +524,9 @@
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sous-famille Antilocaprinae
 Tribu Antilocaprini
@@ -568,9 +582,11 @@
           <t>Phylogénie au sein des cétartiodactyles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des familles des Cétartiodactyles actuels (Cétacés non développés)[1],[2],[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des familles des Cétartiodactyles actuels (Cétacés non développés) :
 </t>
         </is>
       </c>
